--- a/medicine/Mort/Hollywood_Forever_Cemetery/Hollywood_Forever_Cemetery.xlsx
+++ b/medicine/Mort/Hollywood_Forever_Cemetery/Hollywood_Forever_Cemetery.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Hollywood Forever Cemetery est un cimetière situé au 6000 Santa Monica Boulevard à Hollywood (district de Los Angeles, Californie). Il est adjacent aux studios Paramount Pictures et aux studios RKO Pictures.
 </t>
@@ -511,9 +523,11 @@
           <t>Présentation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Créé en 1899 sur 100 acres (25 ha), il avait alors pour nom Hollywood Memorial Park Cemetery. En 1939, il est racheté par un voyou, Jules Roth, qui par la suite détourne le fonds destiné à entretenir le cimetière, naviguant sur un yacht initialement acheté pour disperser en mer les cendres des défunts qui l'avaient demandé. Il a été racheté en 1998 pour 375 000 dollars par la société Forever, d'où son nom actuel. Depuis, son directeur est Tyler Cassity. L'endroit cherchait depuis un certain temps un repreneur alors qu'il commençait à se délabrer : des sculptures tombaient en ruines, le crématorium ne fonctionnait plus depuis 1974 et certaines familles changeaient leur tombe de cimetière. Son projet, approuvé par le conseil municipal, a transformé le cimetière en lieu de festivités : des projections de films, des concerts (il y a une petite salle de 150 places, le Masonic Lodge) ou encore des fêtes en vue y sont organisés, notamment pour Halloween jusqu'en 2015[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Créé en 1899 sur 100 acres (25 ha), il avait alors pour nom Hollywood Memorial Park Cemetery. En 1939, il est racheté par un voyou, Jules Roth, qui par la suite détourne le fonds destiné à entretenir le cimetière, naviguant sur un yacht initialement acheté pour disperser en mer les cendres des défunts qui l'avaient demandé. Il a été racheté en 1998 pour 375 000 dollars par la société Forever, d'où son nom actuel. Depuis, son directeur est Tyler Cassity. L'endroit cherchait depuis un certain temps un repreneur alors qu'il commençait à se délabrer : des sculptures tombaient en ruines, le crématorium ne fonctionnait plus depuis 1974 et certaines familles changeaient leur tombe de cimetière. Son projet, approuvé par le conseil municipal, a transformé le cimetière en lieu de festivités : des projections de films, des concerts (il y a une petite salle de 150 places, le Masonic Lodge) ou encore des fêtes en vue y sont organisés, notamment pour Halloween jusqu'en 2015.
 Beaucoup de personnalités du monde du spectacle, du cinéma et de la télévision, des habitants de Los Angeles, sont enterrées à cet endroit. Il y a une partie du cimetière réservée à la communauté juive d'Hollywood, au sud-ouest : le cimetière de Beth-Olam.
 </t>
         </is>
@@ -543,7 +557,9 @@
           <t>Célébrités inhumées</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>David Abel (1883-1973), directeur de la photographie
 Don Adams (1923-2005), comédien
@@ -601,10 +617,10 @@
 Florence Lawrence (1886-1938), actrice canadienne, la "Biograph Girl"
 Henry Lehrman (1886-1946), réalisateur, acteur et scénariste ; il est enterré à côté de Virginia Rappe dont il était le fiancé à sa mort.
 Peter Lorre (1904-1964), acteur
-Hattie McDaniel (1895-1952), actrice (cénotaphe érigé en 1999 ; à sa mort, son inhumation au cimetière est refusée à cause de la ségrégation raciale)[1]
+Hattie McDaniel (1895-1952), actrice (cénotaphe érigé en 1999 ; à sa mort, son inhumation au cimetière est refusée à cause de la ségrégation raciale)
 Darren McGavin (1922-2006), acteur
 Jeanie Macpherson (1887-1946), actrice, scénariste
-Jayne Mansfield (1933-1967), actrice[1] (cénotaphe, elle est enterrée en Pennsylvanie)
+Jayne Mansfield (1933-1967), actrice (cénotaphe, elle est enterrée en Pennsylvanie)
 June Mathis (1887-1927), scénariste
 Adolphe Menjou (1890-1963), acteur
 Arthur C. Miller (1895-1970), directeur de la photo
@@ -618,7 +634,7 @@
 Eleanor Powell (1912-1982), actrice, danseuse
 Tyrone Power (1914-1958), acteur
 Christopher Quinn (1938-1941), fils de l'acteur Anthony Quinn
-Johnny Ramone (1948-2004), musicien et membre du groupe Ramones[1] (cénotaphe)
+Johnny Ramone (1948-2004), musicien et membre du groupe Ramones (cénotaphe)
 Dee Dee Ramone (1952-2002), musicien et membre du groupe Ramones
 Virginia Rappe (1891-1921), actrice ; Roscoe Arbuckle avait été accusé de l'avoir tuée lors de l'affaire Roscoe Arbuckle
 Rodd Redwing  (1904-1971), acteur
@@ -644,9 +660,9 @@
 William Desmond Taylor (1872-1922), réalisateur, acteur, producteur et scénariste
 Estelle Taylor (1894-1958), actrice
 Gregg Toland (1904-1948), directeur de la photo
-Toto, le chien du film Le Magicien d'Oz[1]
+Toto, le chien du film Le Magicien d'Oz
 Tamara Toumanova (1919-1996), actrice
-Rudolph Valentino (1895-1926), acteur[1]
+Rudolph Valentino (1895-1926), acteur
 Jean Wallace (1923-1990), actrice
 Franz Waxman (1906-1967), compositeur
 Clifton Webb (1889-1966), acteur
